--- a/Tester Results/TEST_EXPERIMENT.xlsx
+++ b/Tester Results/TEST_EXPERIMENT.xlsx
@@ -518,14 +518,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9804615095085371</v>
+        <v>15.41868384604637</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4987478490837232</v>
+        <v>0.5653518641114013</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -555,14 +555,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.164229941503347</v>
+        <v>16.97034382861938</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3391090196643909</v>
+        <v>0.4563770906250505</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -592,14 +592,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5770977316122906</v>
+        <v>13.91313131313132</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8868878007412805</v>
+        <v>0.6732412363272156</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -629,14 +629,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.098562866337133</v>
+        <v>16.49898989898995</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3917112327324842</v>
+        <v>0.4887769044145326</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -777,14 +777,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7843320869031775</v>
+        <v>13.83472471060628</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6981343887467752</v>
+        <v>0.6787646812994838</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -814,14 +814,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7214245743687213</v>
+        <v>13.6437710437711</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7613215982888373</v>
+        <v>0.6921379188669889</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -851,14 +851,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.3430291115699331</v>
+        <v>8.135353535353545</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9893804562908305</v>
+        <v>0.963566203708729</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -888,14 +888,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.6327303453393633</v>
+        <v>12.70639730639729</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8428605152145741</v>
+        <v>0.7556082428860643</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -1036,14 +1036,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.2888858520743097</v>
+        <v>6.730222866000878</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9958854245077556</v>
+        <v>0.9867805605494859</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1073,14 +1073,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5881167342180602</v>
+        <v>12.96480394399127</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8786962887655178</v>
+        <v>0.7385389937130951</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1110,14 +1110,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.09685937444882789</v>
+        <v>3.359595959595993</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999973569236216</v>
+        <v>0.9998446593377505</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1147,14 +1147,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.152709951300598</v>
+        <v>20.4639730639731</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3479542434575608</v>
+        <v>0.2511879998136732</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1295,14 +1295,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.9197148054493174</v>
+        <v>15.30841750841753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5588506564812613</v>
+        <v>0.5732772659217072</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1332,14 +1332,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.8215681145266921</v>
+        <v>13.92121212121216</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6597581140483894</v>
+        <v>0.6726709897822611</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1369,14 +1369,14 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7109474673894536</v>
+        <v>12.20808080808081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7715108786134308</v>
+        <v>0.7873765668019929</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -1406,14 +1406,14 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.5940579699998302</v>
+        <v>12.15420875420875</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8741663286435603</v>
+        <v>0.7907106109798886</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -1554,14 +1554,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.05111376731816358</v>
+        <v>6.360269360269371</v>
       </c>
       <c r="F30" t="n">
-        <v>0.999999981115941</v>
+        <v>0.9904193734119163</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1591,14 +1591,14 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.04998078363121979</v>
+        <v>3.620875420875421</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9999999841981576</v>
+        <v>0.9997381806747955</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1628,14 +1628,14 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1093349579582868</v>
+        <v>2.050505050505052</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9999935134596939</v>
+        <v>0.9999958389324287</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -1665,14 +1665,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.05613417467224265</v>
+        <v>2.979797979798008</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999999603492392</v>
+        <v>0.9999337916661879</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -1813,14 +1813,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.5868040618236329</v>
+        <v>10.76700336700335</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8796865552259556</v>
+        <v>0.8684166538117963</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -1850,14 +1850,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.2273645370462008</v>
+        <v>6.141648242738463</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9990211544384147</v>
+        <v>0.9921822497078893</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
@@ -1887,14 +1887,14 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.04700086934022151</v>
+        <v>2.190572390572413</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9999999903196493</v>
+        <v>0.9999931415624029</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
@@ -1924,14 +1924,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ANOVA</t>
+          <t>Kruskal-Wallis</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.0993103154471569</v>
+        <v>3.661279461279491</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9999968153525454</v>
+        <v>0.9997173307080688</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>

--- a/Tester Results/TEST_EXPERIMENT.xlsx
+++ b/Tester Results/TEST_EXPERIMENT.xlsx
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.97034382861938</v>
+        <v>16.72525252525256</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4563770906250505</v>
+        <v>0.4731255226251436</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>13.6437710437711</v>
+        <v>14.02087542087543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6921379188669889</v>
+        <v>0.6656236964032298</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.96480394399127</v>
+        <v>10.90707070707074</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7385389937130951</v>
+        <v>0.8613538887964793</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3.359595959595993</v>
+        <v>3.230303030303048</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998446593377505</v>
+        <v>0.9998822211956704</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.790628007536688</v>
+        <v>9.796375367681955</v>
       </c>
       <c r="F21" t="n">
-        <v>0.912159837643706</v>
+        <v>0.9119313185377108</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.17413435393877</v>
+        <v>12.08398087653514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.789479875195374</v>
+        <v>0.7950253604156666</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.92121212121216</v>
+        <v>14.1070707070707</v>
       </c>
       <c r="F24" t="n">
-        <v>0.6726709897822611</v>
+        <v>0.6595088327915704</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.620875420875421</v>
+        <v>4.100336700336698</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9997381806747955</v>
+        <v>0.9993891063825645</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -1854,10 +1854,10 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.141648242738463</v>
+        <v>6.451851851851899</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9921822497078893</v>
+        <v>0.9895984958228489</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
